--- a/data/MainData_Updated.xlsx
+++ b/data/MainData_Updated.xlsx
@@ -658,7 +658,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>cv 1</t>
+          <t>Page (27)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Crescent &amp; Company</t>
+          <t xml:space="preserve">WM. Tec Engineering Company </t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Fauji Fertilizers Company Sadiqabad</t>
+          <t>Faisalabad</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>02-09-2022</t>
+          <t>17-03-2023</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>22-10-2023</t>
+          <t>28-08-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>National Engineering Services Pakistan</t>
+          <t>Jadeed Oil Extraction</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>IT Tower Gulberg Lahore</t>
+          <t>Khanewal</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>19-01-2024</t>
+          <t>28-01-2027</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>01-09-2025</t>
+          <t>27-09-2025</t>
         </is>
       </c>
       <c r="X2" t="inlineStr"/>
@@ -718,12 +718,12 @@
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>Page (43)</t>
+          <t>Page (32)</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>Page (2)</t>
+          <t>Page (156)</t>
         </is>
       </c>
     </row>
